--- a/files/统计20181112.xlsx
+++ b/files/统计20181112.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Android</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -89,6 +89,10 @@
   </si>
   <si>
     <t>统计于前程无忧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>web</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -275,7 +279,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -299,67 +303,79 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -395,31 +411,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>前程无忧程序员薪资趋势</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -460,7 +451,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>android</c:v>
+            <c:v>Android</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -569,7 +560,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>php</c:v>
+            <c:v>PHP</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -678,7 +669,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>java</c:v>
+            <c:v>Java</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -896,7 +887,7 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>ios</c:v>
+            <c:v>iOS</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -1001,6 +992,115 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>web</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'20181112'!$B$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.0-0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2-0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3-4.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5-6.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0-0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8-1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1-1.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5-2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0-3.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0-4.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0-5.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.0-</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'20181112'!$B$13:$M$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5.184666199579622E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2971674507056351E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17453708337503754</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20236212591332198</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21279151236112501</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14621159043138826</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15205685116604944</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.2276048443599241E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5603042738464619E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6032429186267641E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.8079271344209786E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5213692323090781E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1010,11 +1110,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="431150096"/>
-        <c:axId val="431151664"/>
+        <c:axId val="394301064"/>
+        <c:axId val="396185952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="431150096"/>
+        <c:axId val="394301064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1057,7 +1157,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="431151664"/>
+        <c:crossAx val="396185952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1065,7 +1165,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="431151664"/>
+        <c:axId val="396185952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1116,7 +1216,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="431150096"/>
+        <c:crossAx val="394301064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1757,20 +1857,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>962024</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>42861</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>990600</xdr:colOff>
+      <xdr:colOff>1057274</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvPr id="2" name="图表 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2075,10 +2175,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2130,7 +2230,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" ht="22.5">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="5">
@@ -2148,10 +2248,10 @@
       <c r="F2" s="5">
         <v>1285</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="9">
         <v>1848</v>
       </c>
-      <c r="H2" s="19">
+      <c r="H2" s="11">
         <v>2543</v>
       </c>
       <c r="I2" s="5">
@@ -2175,7 +2275,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1">
-      <c r="A3" s="12"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="7">
         <f>B2/$N$2</f>
         <v>5.1738659607748769E-3</v>
@@ -2196,11 +2296,11 @@
         <f t="shared" si="0"/>
         <v>0.15461436650222596</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="10">
         <f t="shared" si="0"/>
         <v>0.22235591384911563</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="12">
         <f t="shared" si="0"/>
         <v>0.30598002647094213</v>
       </c>
@@ -2230,7 +2330,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="18" customHeight="1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="23" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="5">
@@ -2248,10 +2348,10 @@
       <c r="F4" s="5">
         <v>1221</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="9">
         <v>1382</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="13">
         <v>1591</v>
       </c>
       <c r="I4" s="5">
@@ -2275,7 +2375,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="18" customHeight="1">
-      <c r="A5" s="16"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="7">
         <f>B4/$N4</f>
         <v>5.0670640834575261E-3</v>
@@ -2296,11 +2396,11 @@
         <f t="shared" si="1"/>
         <v>0.18196721311475411</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="10">
         <f t="shared" si="1"/>
         <v>0.20596125186289121</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="14">
         <f t="shared" si="1"/>
         <v>0.23710879284649777</v>
       </c>
@@ -2330,7 +2430,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="18" customHeight="1">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="25" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="5">
@@ -2351,10 +2451,10 @@
       <c r="G6" s="5">
         <v>3822</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="15">
         <v>6799</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="9">
         <v>3861</v>
       </c>
       <c r="J6" s="5">
@@ -2375,7 +2475,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="18" customHeight="1">
-      <c r="A7" s="18"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="7">
         <f>B6/$N$6</f>
         <v>6.3070012251009574E-3</v>
@@ -2400,11 +2500,11 @@
         <f t="shared" si="2"/>
         <v>0.17341984663550977</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7" s="16">
         <f t="shared" si="2"/>
         <v>0.3084985707155497</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="10">
         <f t="shared" si="2"/>
         <v>0.17518943690730068</v>
       </c>
@@ -2430,7 +2530,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="5">
@@ -2451,10 +2551,10 @@
       <c r="G8" s="5">
         <v>1411</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="17">
         <v>2534</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="9">
         <v>1839</v>
       </c>
       <c r="J8" s="5">
@@ -2475,7 +2575,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1">
-      <c r="A9" s="10"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="7">
         <f>B8/$N$8</f>
         <v>6.0772847150556133E-3</v>
@@ -2500,11 +2600,11 @@
         <f t="shared" si="3"/>
         <v>0.1617933723196881</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="18">
         <f t="shared" si="3"/>
         <v>0.29056300882926273</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="10">
         <f t="shared" si="3"/>
         <v>0.2108703130374957</v>
       </c>
@@ -2530,7 +2630,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="18" customHeight="1">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="29" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="5">
@@ -2548,10 +2648,10 @@
       <c r="F10" s="5">
         <v>988</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="9">
         <v>1485</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H10" s="19">
         <v>1706</v>
       </c>
       <c r="I10" s="5">
@@ -2575,7 +2675,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1">
-      <c r="A11" s="27"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="7">
         <f>B10/$N$10</f>
         <v>4.092322802422655E-3</v>
@@ -2596,11 +2696,11 @@
         <f t="shared" si="4"/>
         <v>0.16172859715174334</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="10">
         <f t="shared" si="4"/>
         <v>0.2430839744639057</v>
       </c>
-      <c r="H11" s="29">
+      <c r="H11" s="20">
         <f t="shared" si="4"/>
         <v>0.27926010803732199</v>
       </c>
@@ -2629,13 +2729,115 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
+    <row r="12" spans="1:14" ht="18" customHeight="1">
+      <c r="A12" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="5">
+        <v>259</v>
+      </c>
+      <c r="C12" s="5">
+        <v>648</v>
+      </c>
+      <c r="D12" s="5">
+        <v>8719</v>
+      </c>
+      <c r="E12" s="9">
+        <v>10109</v>
+      </c>
+      <c r="F12" s="30">
+        <v>10630</v>
+      </c>
+      <c r="G12" s="5">
+        <v>7304</v>
+      </c>
+      <c r="H12" s="5">
+        <v>7596</v>
+      </c>
+      <c r="I12" s="5">
+        <v>3111</v>
+      </c>
+      <c r="J12" s="5">
+        <v>1279</v>
+      </c>
+      <c r="K12" s="5">
+        <v>180</v>
+      </c>
+      <c r="L12" s="5">
+        <v>44</v>
+      </c>
+      <c r="M12" s="5">
+        <v>76</v>
+      </c>
+      <c r="N12" s="5">
+        <f>SUM(B12:M12)</f>
+        <v>49955</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="18" customHeight="1">
+      <c r="A13" s="32"/>
+      <c r="B13" s="7">
+        <f>B12/$N$12</f>
+        <v>5.184666199579622E-3</v>
+      </c>
+      <c r="C13" s="7">
+        <f t="shared" ref="C13:N13" si="5">C12/$N$12</f>
+        <v>1.2971674507056351E-2</v>
+      </c>
+      <c r="D13" s="7">
+        <f t="shared" si="5"/>
+        <v>0.17453708337503754</v>
+      </c>
+      <c r="E13" s="10">
+        <f t="shared" si="5"/>
+        <v>0.20236212591332198</v>
+      </c>
+      <c r="F13" s="33">
+        <f t="shared" si="5"/>
+        <v>0.21279151236112501</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="5"/>
+        <v>0.14621159043138826</v>
+      </c>
+      <c r="H13" s="7">
+        <f t="shared" si="5"/>
+        <v>0.15205685116604944</v>
+      </c>
+      <c r="I13" s="7">
+        <f t="shared" si="5"/>
+        <v>6.2276048443599241E-2</v>
+      </c>
+      <c r="J13" s="7">
+        <f t="shared" si="5"/>
+        <v>2.5603042738464619E-2</v>
+      </c>
+      <c r="K13" s="7">
+        <f t="shared" si="5"/>
+        <v>3.6032429186267641E-3</v>
+      </c>
+      <c r="L13" s="7">
+        <f t="shared" si="5"/>
+        <v>8.8079271344209786E-4</v>
+      </c>
+      <c r="M13" s="7">
+        <f t="shared" si="5"/>
+        <v>1.5213692323090781E-3</v>
+      </c>
+      <c r="N13" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="18" customHeight="1"/>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
